--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2080" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="8900" yWindow="700" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>PRI</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>主键自增</t>
   </si>
 </sst>
 </file>
@@ -162,14 +162,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -271,12 +269,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,6 +276,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,32 +311,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,268 +597,268 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="700" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="5460" yWindow="600" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="原始表" sheetId="1" r:id="rId1"/>
+    <sheet name="修改表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>'bgdd'</t>
   </si>
@@ -147,13 +148,58 @@
   </si>
   <si>
     <t>主键自增</t>
+  </si>
+  <si>
+    <t>xingming</t>
+  </si>
+  <si>
+    <t>zhicheng</t>
+  </si>
+  <si>
+    <t>zhiwu</t>
+  </si>
+  <si>
+    <t>danwei</t>
+  </si>
+  <si>
+    <t>danwei2</t>
+  </si>
+  <si>
+    <t>lxdh</t>
+  </si>
+  <si>
+    <t>bgsj</t>
+  </si>
+  <si>
+    <t>cz</t>
+  </si>
+  <si>
+    <t>zywz</t>
+  </si>
+  <si>
+    <t>bgdd</t>
+  </si>
+  <si>
+    <t>dzyx</t>
+  </si>
+  <si>
+    <t>txdz</t>
+  </si>
+  <si>
+    <t>办公地址</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +217,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -263,11 +321,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -315,6 +429,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,4 +1010,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>